--- a/data/Index.xlsx
+++ b/data/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tupin/Documents/Unil Msc/Msc2_I/PAAC/Projet/Données/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFCEC7B-4764-E847-A34F-F15C3CDA2A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD15BA-BDFE-D142-A8BB-8D27493E9CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16040" xr2:uid="{69971BD0-A888-5241-8742-F1481DC2B588}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16040" xr2:uid="{69971BD0-A888-5241-8742-F1481DC2B588}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Classeur</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Gouvernement français</t>
+  </si>
+  <si>
+    <t>Mesures sanitaires mises en place par le gouvernement contre la Covid 19</t>
+  </si>
+  <si>
+    <t>tableaux-4001-ts_mesures.xlsx</t>
+  </si>
+  <si>
+    <t>Mesures</t>
   </si>
 </sst>
 </file>
@@ -473,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABF2B18-05F0-0B42-BF94-2881A642E502}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +501,7 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
@@ -589,6 +604,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44520</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
